--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\Secreterial\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF00DC23-C3BB-4FBB-A77D-9900DDA27F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AC2AD8-1532-40A7-9431-ACF6A992BBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{255B3B09-25D6-4726-96AE-63A95570402B}"/>
   </bookViews>
@@ -51,12 +51,6 @@
     <t>Committee Name</t>
   </si>
   <si>
-    <t>Test Committee</t>
-  </si>
-  <si>
-    <t>Test Test</t>
-  </si>
-  <si>
     <t>FisrtName</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t>Pune</t>
   </si>
   <si>
-    <t>Rudra</t>
-  </si>
-  <si>
     <t>InternalAuditor</t>
   </si>
   <si>
@@ -105,28 +96,37 @@
     <t>StatutoryAuditor</t>
   </si>
   <si>
-    <t>Rajshri</t>
-  </si>
-  <si>
-    <t>rajshri@gmail.com</t>
-  </si>
-  <si>
-    <t>Supriya</t>
-  </si>
-  <si>
-    <t>supriya@gmail.com</t>
-  </si>
-  <si>
-    <t>Komal</t>
-  </si>
-  <si>
-    <t>komal@gmail.com</t>
-  </si>
-  <si>
-    <t>Shreya</t>
-  </si>
-  <si>
-    <t>shreya@gmail.com</t>
+    <t>Riyaj</t>
+  </si>
+  <si>
+    <t>Rajshree</t>
+  </si>
+  <si>
+    <t>rajshree@gmail.com</t>
+  </si>
+  <si>
+    <t>Kajal</t>
+  </si>
+  <si>
+    <t>kajal@gmail.com</t>
+  </si>
+  <si>
+    <t>Ajay</t>
+  </si>
+  <si>
+    <t>ajay@gmail.com</t>
+  </si>
+  <si>
+    <t>Priyal</t>
+  </si>
+  <si>
+    <t>priyal@gmail.com</t>
+  </si>
+  <si>
+    <t>Automation Testing New</t>
+  </si>
+  <si>
+    <t>Test ABC new</t>
   </si>
 </sst>
 </file>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1294C1BA-142B-49FF-9A7D-E1A40C4DF851}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,7 +562,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -570,36 +570,36 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>1234567890</v>
@@ -607,86 +607,86 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>29</v>
@@ -702,39 +702,39 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\Secreterial\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AC2AD8-1532-40A7-9431-ACF6A992BBCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188DE0F2-4C3B-4551-BAEF-45FBA6510F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{255B3B09-25D6-4726-96AE-63A95570402B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>URL</t>
   </si>
@@ -39,15 +39,9 @@
     <t>secretarialdemo@gmail.com</t>
   </si>
   <si>
-    <t>admin@123</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Masters</t>
-  </si>
-  <si>
     <t>Committee Name</t>
   </si>
   <si>
@@ -96,37 +90,109 @@
     <t>StatutoryAuditor</t>
   </si>
   <si>
-    <t>Riyaj</t>
-  </si>
-  <si>
-    <t>Rajshree</t>
-  </si>
-  <si>
-    <t>rajshree@gmail.com</t>
-  </si>
-  <si>
-    <t>Kajal</t>
-  </si>
-  <si>
-    <t>kajal@gmail.com</t>
-  </si>
-  <si>
-    <t>Ajay</t>
-  </si>
-  <si>
-    <t>ajay@gmail.com</t>
-  </si>
-  <si>
-    <t>Priyal</t>
-  </si>
-  <si>
-    <t>priyal@gmail.com</t>
-  </si>
-  <si>
     <t>Automation Testing New</t>
   </si>
   <si>
     <t>Test ABC new</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Asmita</t>
+  </si>
+  <si>
+    <t>asmita@gmail.com</t>
+  </si>
+  <si>
+    <t>Gayatri</t>
+  </si>
+  <si>
+    <t>gayatri@gmail.com</t>
+  </si>
+  <si>
+    <t>Lalit</t>
+  </si>
+  <si>
+    <t>lalit@gmail.com</t>
+  </si>
+  <si>
+    <t>Abhilasha</t>
+  </si>
+  <si>
+    <t>abhilasha@gmail.com</t>
+  </si>
+  <si>
+    <t>UserMaster</t>
+  </si>
+  <si>
+    <t>CommitteeMasters</t>
+  </si>
+  <si>
+    <t>EntityMaster</t>
+  </si>
+  <si>
+    <t>CIN*</t>
+  </si>
+  <si>
+    <t>EntityName*</t>
+  </si>
+  <si>
+    <t>PAN*</t>
+  </si>
+  <si>
+    <t>Email*</t>
+  </si>
+  <si>
+    <t>AASCH2180C</t>
+  </si>
+  <si>
+    <t>ADBC Pvt Ltd</t>
+  </si>
+  <si>
+    <t>U72266KA2002PLC030751</t>
+  </si>
+  <si>
+    <t>absc@gmail.com</t>
+  </si>
+  <si>
+    <t>AASCY2180C</t>
+  </si>
+  <si>
+    <t>admin@1234</t>
+  </si>
+  <si>
+    <t>BranchDetailes</t>
+  </si>
+  <si>
+    <t>Contact Person</t>
+  </si>
+  <si>
+    <t>Contact Number</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>Sneha</t>
+  </si>
+  <si>
+    <t>sneha@gmail.com</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>BankDetailes</t>
+  </si>
+  <si>
+    <t>Account No*</t>
+  </si>
+  <si>
+    <t>Name Of Bank*</t>
+  </si>
+  <si>
+    <t>SBI</t>
   </si>
 </sst>
 </file>
@@ -516,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1294C1BA-142B-49FF-9A7D-E1A40C4DF851}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,60 +612,65 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
+      <c r="A6" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>1234567890</v>
@@ -607,44 +678,44 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
@@ -652,70 +723,70 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -723,7 +794,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>27</v>
@@ -731,10 +802,129 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>1111111111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53">
+        <v>65434523432</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -748,6 +938,8 @@
     <hyperlink ref="B24" r:id="rId7" xr:uid="{A963794B-EBBA-4F15-A647-EAE36C1513CE}"/>
     <hyperlink ref="B29" r:id="rId8" xr:uid="{F62466B9-EA66-424E-9C08-E8C6BBC8D8D1}"/>
     <hyperlink ref="B34" r:id="rId9" xr:uid="{81DB4F48-6DCF-4629-B14C-E33CF5C9A563}"/>
+    <hyperlink ref="B41" r:id="rId10" xr:uid="{A277C7FA-171A-455B-A94E-EB23B559AC03}"/>
+    <hyperlink ref="B49" r:id="rId11" xr:uid="{6554F8B1-A07D-4852-B37D-DCE2627055BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\Secreterial\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188DE0F2-4C3B-4551-BAEF-45FBA6510F17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFC0906-8DF2-45B6-99C5-962BE97BBEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{255B3B09-25D6-4726-96AE-63A95570402B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>URL</t>
   </si>
@@ -193,6 +193,39 @@
   </si>
   <si>
     <t>SBI</t>
+  </si>
+  <si>
+    <t>LLP</t>
+  </si>
+  <si>
+    <t>LLP Name</t>
+  </si>
+  <si>
+    <t>LLPIN*</t>
+  </si>
+  <si>
+    <t>Email [As per ROC Records]:*</t>
+  </si>
+  <si>
+    <t>ABC Pvt Ltd</t>
+  </si>
+  <si>
+    <t>AAE-6302</t>
+  </si>
+  <si>
+    <t>abc@gmail.com</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>Satara</t>
+  </si>
+  <si>
+    <t>ABGFA8483G</t>
   </si>
 </sst>
 </file>
@@ -582,15 +615,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1294C1BA-142B-49FF-9A7D-E1A40C4DF851}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="29.5546875" customWidth="1"/>
     <col min="2" max="2" width="63.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -925,6 +958,51 @@
       </c>
       <c r="B54" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -940,6 +1018,7 @@
     <hyperlink ref="B34" r:id="rId9" xr:uid="{81DB4F48-6DCF-4629-B14C-E33CF5C9A563}"/>
     <hyperlink ref="B41" r:id="rId10" xr:uid="{A277C7FA-171A-455B-A94E-EB23B559AC03}"/>
     <hyperlink ref="B49" r:id="rId11" xr:uid="{6554F8B1-A07D-4852-B37D-DCE2627055BC}"/>
+    <hyperlink ref="B59" r:id="rId12" xr:uid="{71D98146-58BF-4733-BD67-090287B07630}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\Secreterial\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FFC0906-8DF2-45B6-99C5-962BE97BBEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B536F74-B230-4A87-B9FA-0DF1E13AFFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{255B3B09-25D6-4726-96AE-63A95570402B}"/>
   </bookViews>

--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\Secreterial\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B536F74-B230-4A87-B9FA-0DF1E13AFFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB77A2E-BEA2-4E33-8150-1873BF31EFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{255B3B09-25D6-4726-96AE-63A95570402B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
   <si>
     <t>URL</t>
   </si>
@@ -226,6 +226,45 @@
   </si>
   <si>
     <t>ABGFA8483G</t>
+  </si>
+  <si>
+    <t>FOLIO NO*</t>
+  </si>
+  <si>
+    <t>Name of the member*</t>
+  </si>
+  <si>
+    <t>Name of joint holders, if any</t>
+  </si>
+  <si>
+    <t>Address/ Registered address (in case of body corporate)*</t>
+  </si>
+  <si>
+    <t>Father’s/ Mother’s/ Spouse’s name</t>
+  </si>
+  <si>
+    <t>E-mail Id</t>
+  </si>
+  <si>
+    <t>Occupation</t>
+  </si>
+  <si>
+    <t>CIN/ Registration No/LLPN</t>
+  </si>
+  <si>
+    <t>ShareHolding</t>
+  </si>
+  <si>
+    <t>Raj Roy</t>
+  </si>
+  <si>
+    <t>Ravi Roy</t>
+  </si>
+  <si>
+    <t>raj@gmail.com</t>
+  </si>
+  <si>
+    <t>Business</t>
   </si>
 </sst>
 </file>
@@ -615,15 +654,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1294C1BA-142B-49FF-9A7D-E1A40C4DF851}">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.5546875" customWidth="1"/>
+    <col min="1" max="1" width="49.109375" customWidth="1"/>
     <col min="2" max="2" width="63.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1003,6 +1042,83 @@
       </c>
       <c r="B61" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1019,6 +1135,7 @@
     <hyperlink ref="B41" r:id="rId10" xr:uid="{A277C7FA-171A-455B-A94E-EB23B559AC03}"/>
     <hyperlink ref="B49" r:id="rId11" xr:uid="{6554F8B1-A07D-4852-B37D-DCE2627055BC}"/>
     <hyperlink ref="B59" r:id="rId12" xr:uid="{71D98146-58BF-4733-BD67-090287B07630}"/>
+    <hyperlink ref="B70" r:id="rId13" xr:uid="{52493713-C07E-463D-A94D-6F6E048D6132}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\Secreterial\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB77A2E-BEA2-4E33-8150-1873BF31EFBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE9E439-9209-49B5-82E7-A6F13780CF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{255B3B09-25D6-4726-96AE-63A95570402B}"/>
   </bookViews>
@@ -90,12 +90,6 @@
     <t>StatutoryAuditor</t>
   </si>
   <si>
-    <t>Automation Testing New</t>
-  </si>
-  <si>
-    <t>Test ABC new</t>
-  </si>
-  <si>
     <t>Rahul</t>
   </si>
   <si>
@@ -265,6 +259,12 @@
   </si>
   <si>
     <t>Business</t>
+  </si>
+  <si>
+    <t>ABCDFd</t>
+  </si>
+  <si>
+    <t>ABC Committee Test</t>
   </si>
 </sst>
 </file>
@@ -656,8 +656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1294C1BA-142B-49FF-9A7D-E1A40C4DF851}">
   <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64:XFD64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,12 +687,12 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -700,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -708,12 +708,12 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -766,7 +766,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -774,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -790,7 +790,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -803,7 +803,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -811,7 +811,7 @@
         <v>10</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -832,7 +832,7 @@
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -840,7 +840,7 @@
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -861,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -869,7 +869,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -882,39 +882,39 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
         <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -927,15 +927,15 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -943,20 +943,20 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48">
         <v>1111111111</v>
@@ -967,25 +967,25 @@
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>65434523432</v>
@@ -993,65 +993,65 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>15</v>
@@ -1059,31 +1059,31 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
@@ -1091,34 +1091,34 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\Secreterial\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE9E439-9209-49B5-82E7-A6F13780CF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611968E9-7BFC-4B1A-A410-F68E72CA4B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{255B3B09-25D6-4726-96AE-63A95570402B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
   <si>
     <t>URL</t>
   </si>
@@ -265,6 +265,25 @@
   </si>
   <si>
     <t>ABC Committee Test</t>
+  </si>
+  <si>
+    <t>Secretarial Auditor</t>
+  </si>
+  <si>
+    <t>Certificate of Practice*</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the Cost auditor's firm/LLP* </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+Resolution number*</t>
+  </si>
+  <si>
+    <t>Priya</t>
   </si>
 </sst>
 </file>
@@ -332,13 +351,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -654,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1294C1BA-142B-49FF-9A7D-E1A40C4DF851}">
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,6 +1141,40 @@
       </c>
       <c r="B72" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\Secreterial\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611968E9-7BFC-4B1A-A410-F68E72CA4B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309D2F4A-0FFF-4AB5-B732-0BDA8E88F1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{255B3B09-25D6-4726-96AE-63A95570402B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
   <si>
     <t>URL</t>
   </si>
@@ -138,21 +138,9 @@
     <t>Email*</t>
   </si>
   <si>
-    <t>AASCH2180C</t>
-  </si>
-  <si>
-    <t>ADBC Pvt Ltd</t>
-  </si>
-  <si>
     <t>U72266KA2002PLC030751</t>
   </si>
   <si>
-    <t>absc@gmail.com</t>
-  </si>
-  <si>
-    <t>AASCY2180C</t>
-  </si>
-  <si>
     <t>admin@1234</t>
   </si>
   <si>
@@ -166,12 +154,6 @@
   </si>
   <si>
     <t>Address Line 1</t>
-  </si>
-  <si>
-    <t>Sneha</t>
-  </si>
-  <si>
-    <t>sneha@gmail.com</t>
   </si>
   <si>
     <t>Mumbai</t>
@@ -284,6 +266,30 @@
   </si>
   <si>
     <t>Priya</t>
+  </si>
+  <si>
+    <t>Rajsthan</t>
+  </si>
+  <si>
+    <t>Rajveer</t>
+  </si>
+  <si>
+    <t>rajveer@gmail.com</t>
+  </si>
+  <si>
+    <t>ABCDE Pvt Ltd</t>
+  </si>
+  <si>
+    <t>U72266KA2002PLC030678</t>
+  </si>
+  <si>
+    <t>AASCH2145C</t>
+  </si>
+  <si>
+    <t>abcde@gmail.com</t>
+  </si>
+  <si>
+    <t>AASCY2420C</t>
   </si>
 </sst>
 </file>
@@ -678,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1294C1BA-142B-49FF-9A7D-E1A40C4DF851}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,7 +715,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -722,7 +728,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -730,7 +736,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -912,7 +918,7 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -920,7 +926,7 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -928,7 +934,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -936,7 +942,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -952,12 +958,12 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -965,20 +971,20 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B48">
         <v>1111111111</v>
@@ -989,91 +995,91 @@
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B53">
-        <v>65434523432</v>
+        <v>65467523432</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B64">
         <v>15</v>
@@ -1081,31 +1087,31 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
@@ -1113,47 +1119,47 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" t="s">
         <v>69</v>
-      </c>
-      <c r="B69" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>64</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" t="s">
         <v>71</v>
-      </c>
-      <c r="B71" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -1163,15 +1169,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B79">
         <v>23</v>

--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Snehal\ComplianceLatest\Secreterial\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Secretarial-Project-main\Secretarial-Project-main\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309D2F4A-0FFF-4AB5-B732-0BDA8E88F1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{255B3B09-25D6-4726-96AE-63A95570402B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="HDCS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
   <si>
     <t>URL</t>
   </si>
@@ -168,9 +167,6 @@
     <t>Name Of Bank*</t>
   </si>
   <si>
-    <t>SBI</t>
-  </si>
-  <si>
     <t>LLP</t>
   </si>
   <si>
@@ -183,22 +179,10 @@
     <t>Email [As per ROC Records]:*</t>
   </si>
   <si>
-    <t>ABC Pvt Ltd</t>
-  </si>
-  <si>
-    <t>AAE-6302</t>
-  </si>
-  <si>
-    <t>abc@gmail.com</t>
-  </si>
-  <si>
     <t>PAN</t>
   </si>
   <si>
     <t>Address2</t>
-  </si>
-  <si>
-    <t>Satara</t>
   </si>
   <si>
     <t>ABGFA8483G</t>
@@ -268,34 +252,55 @@
     <t>Priya</t>
   </si>
   <si>
-    <t>Rajsthan</t>
-  </si>
-  <si>
-    <t>Rajveer</t>
-  </si>
-  <si>
-    <t>rajveer@gmail.com</t>
-  </si>
-  <si>
-    <t>ABCDE Pvt Ltd</t>
-  </si>
-  <si>
-    <t>U72266KA2002PLC030678</t>
-  </si>
-  <si>
-    <t>AASCH2145C</t>
-  </si>
-  <si>
-    <t>abcde@gmail.com</t>
-  </si>
-  <si>
-    <t>AASCY2420C</t>
+    <t>U72266KA2002PLC038436</t>
+  </si>
+  <si>
+    <t>AASCY2414C</t>
+  </si>
+  <si>
+    <t>HEGT Pvt Ltd</t>
+  </si>
+  <si>
+    <t>AASCH2122C</t>
+  </si>
+  <si>
+    <t>hegt@gmail.com</t>
+  </si>
+  <si>
+    <t>Karad</t>
+  </si>
+  <si>
+    <t>PQRS Pvt Ltd</t>
+  </si>
+  <si>
+    <t>AAE-3402</t>
+  </si>
+  <si>
+    <t>pqrs@gmail.com</t>
+  </si>
+  <si>
+    <t>ABGFA8893G</t>
+  </si>
+  <si>
+    <t>ABGFA4394G</t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>Thane</t>
+  </si>
+  <si>
+    <t>Sanika</t>
+  </si>
+  <si>
+    <t>sanika@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -681,20 +686,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1294C1BA-142B-49FF-9A7D-E1A40C4DF851}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="49.109375" customWidth="1"/>
-    <col min="2" max="2" width="63.33203125" customWidth="1"/>
+    <col min="1" max="1" width="49.140625" customWidth="1"/>
+    <col min="2" max="2" width="63.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -710,7 +715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -718,33 +723,33 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -752,7 +757,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -760,7 +765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -768,7 +773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -776,7 +781,7 @@
         <v>1234567890</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -784,12 +789,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -797,7 +802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -805,7 +810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -813,7 +818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -821,12 +826,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -834,7 +839,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -842,7 +847,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -850,12 +855,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -863,7 +868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -871,7 +876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>15</v>
       </c>
@@ -879,12 +884,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -892,7 +897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -900,7 +905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -908,44 +913,44 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>15</v>
       </c>
@@ -953,36 +958,36 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>40</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>41</v>
       </c>
@@ -990,15 +995,15 @@
         <v>1111111111</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -1006,178 +1011,186 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
       <c r="B53">
-        <v>65467523432</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>65897523432</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
       <c r="B54" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>49</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>59</v>
       </c>
       <c r="B64">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>61</v>
-      </c>
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>66</v>
       </c>
       <c r="B67" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>64</v>
-      </c>
-      <c r="B70" s="1" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>65</v>
-      </c>
-      <c r="B71" t="s">
+      <c r="B75" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>75</v>
-      </c>
-      <c r="B75" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B79">
         <v>23</v>
@@ -1185,19 +1198,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{B0672D9E-B9C8-47B0-8FD7-69E0075D8232}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{C6A2BDC8-811B-4BFC-B8AB-B8549C37F8FE}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{306392D2-6719-4392-A072-26CFEAD3AFCF}"/>
-    <hyperlink ref="B12" r:id="rId4" xr:uid="{31C9F3D7-7BDF-41FE-B6C6-A0A16CD47C38}"/>
-    <hyperlink ref="B10" r:id="rId5" display="mayuri@gmail.com" xr:uid="{20B18498-1B15-4343-90CC-53C2CBD38E9C}"/>
-    <hyperlink ref="B18" r:id="rId6" xr:uid="{6C21B3F8-10D8-42A1-84FA-1B2446F1870F}"/>
-    <hyperlink ref="B24" r:id="rId7" xr:uid="{A963794B-EBBA-4F15-A647-EAE36C1513CE}"/>
-    <hyperlink ref="B29" r:id="rId8" xr:uid="{F62466B9-EA66-424E-9C08-E8C6BBC8D8D1}"/>
-    <hyperlink ref="B34" r:id="rId9" xr:uid="{81DB4F48-6DCF-4629-B14C-E33CF5C9A563}"/>
-    <hyperlink ref="B41" r:id="rId10" xr:uid="{A277C7FA-171A-455B-A94E-EB23B559AC03}"/>
-    <hyperlink ref="B49" r:id="rId11" xr:uid="{6554F8B1-A07D-4852-B37D-DCE2627055BC}"/>
-    <hyperlink ref="B59" r:id="rId12" xr:uid="{71D98146-58BF-4733-BD67-090287B07630}"/>
-    <hyperlink ref="B70" r:id="rId13" xr:uid="{52493713-C07E-463D-A94D-6F6E048D6132}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B12" r:id="rId4"/>
+    <hyperlink ref="B10" r:id="rId5" display="mayuri@gmail.com"/>
+    <hyperlink ref="B18" r:id="rId6"/>
+    <hyperlink ref="B24" r:id="rId7"/>
+    <hyperlink ref="B29" r:id="rId8"/>
+    <hyperlink ref="B34" r:id="rId9"/>
+    <hyperlink ref="B41" r:id="rId10"/>
+    <hyperlink ref="B49" r:id="rId11"/>
+    <hyperlink ref="B59" r:id="rId12"/>
+    <hyperlink ref="B70" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -137,9 +137,6 @@
     <t>Email*</t>
   </si>
   <si>
-    <t>U72266KA2002PLC030751</t>
-  </si>
-  <si>
     <t>admin@1234</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>Address2</t>
   </si>
   <si>
-    <t>ABGFA8483G</t>
-  </si>
-  <si>
     <t>FOLIO NO*</t>
   </si>
   <si>
@@ -237,9 +231,6 @@
   </si>
   <si>
     <t>Certificate of Practice*</t>
-  </si>
-  <si>
-    <t>ABC</t>
   </si>
   <si>
     <t xml:space="preserve">Name of the Cost auditor's firm/LLP* </t>
@@ -249,9 +240,6 @@
 Resolution number*</t>
   </si>
   <si>
-    <t>Priya</t>
-  </si>
-  <si>
     <t>U72266KA2002PLC038436</t>
   </si>
   <si>
@@ -295,6 +283,18 @@
   </si>
   <si>
     <t>sanika@gmail.com</t>
+  </si>
+  <si>
+    <t>U72266KA2002PLC048945</t>
+  </si>
+  <si>
+    <t>ABGFA8670G</t>
+  </si>
+  <si>
+    <t>PQR</t>
+  </si>
+  <si>
+    <t>Riyanshi</t>
   </si>
 </sst>
 </file>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -741,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -931,7 +931,7 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -963,12 +963,12 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -976,20 +976,20 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48">
         <v>1111111111</v>
@@ -1000,25 +1000,25 @@
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
         <v>42</v>
-      </c>
-      <c r="B50" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B53">
         <v>65897523432</v>
@@ -1026,105 +1026,105 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B62" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B64">
-        <v>15</v>
+        <v>756</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
@@ -1132,47 +1132,47 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B72" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B75" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1182,18 +1182,18 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B79">
-        <v>23</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -137,9 +137,6 @@
     <t>Email*</t>
   </si>
   <si>
-    <t>admin@1234</t>
-  </si>
-  <si>
     <t>BranchDetailes</t>
   </si>
   <si>
@@ -295,6 +292,9 @@
   </si>
   <si>
     <t>Riyanshi</t>
+  </si>
+  <si>
+    <t>admin@12345</t>
   </si>
 </sst>
 </file>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -733,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -741,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -923,7 +923,7 @@
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -931,7 +931,7 @@
         <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -939,7 +939,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -947,7 +947,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -963,12 +963,12 @@
         <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -976,20 +976,20 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>1111111111</v>
@@ -1000,25 +1000,25 @@
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
         <v>41</v>
-      </c>
-      <c r="B50" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53">
         <v>65897523432</v>
@@ -1026,73 +1026,73 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B64">
         <v>756</v>
@@ -1100,31 +1100,31 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B66" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
@@ -1132,47 +1132,47 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1182,15 +1182,15 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B79">
         <v>670</v>

--- a/TestData/SecreterialSheet3.xlsx
+++ b/TestData/SecreterialSheet3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
   <si>
     <t>URL</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>admin@12345</t>
+  </si>
+  <si>
+    <t>My Workspace-My Task</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -687,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B79"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,6 +1206,27 @@
       </c>
       <c r="B79">
         <v>670</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>91</v>
+      </c>
+      <c r="B82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
